--- a/Documentos/Arquitetura/Uat esboço.xlsx
+++ b/Documentos/Arquitetura/Uat esboço.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27DE6ECF-4B9E-46A5-95DF-D155FCAB2A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA1582F-1819-4911-AE1B-17A1CFA994C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fatura" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <definedName name="ColumnTitle1">SimpleInvoice[[#Headers],[Test Case Id]]</definedName>
     <definedName name="Nome_da_Empresa">Fatura!$B$1</definedName>
     <definedName name="RowTitleRegion1..C7">Fatura!$B$4</definedName>
-    <definedName name="RowTitleRegion2..G5">Fatura!$G$4</definedName>
+    <definedName name="RowTitleRegion2..G5">Fatura!$H$4</definedName>
     <definedName name="RowTitleRegion3..G26">Fatura!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Fatura!$8:$8</definedName>
   </definedNames>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="60">
   <si>
     <t>Descrição</t>
   </si>
@@ -132,6 +132,87 @@
   </si>
   <si>
     <t>Nenhuma</t>
+  </si>
+  <si>
+    <t>Tipos de teste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testes de carga </t>
+  </si>
+  <si>
+    <t>Tipo de teste</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Website Login e Cadastro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar os validadores dos campos, verificar se as informações incorretas de cada campo são validadas ou não </t>
+  </si>
+  <si>
+    <t>Navegar até a página de login. 1 - Página Home                                   2 - Clicar em cadastrar</t>
+  </si>
+  <si>
+    <t>Inserir informações diferentes pedidos em cada campo, com objetivo de verificar se os campos aceitam as informações/dados</t>
+  </si>
+  <si>
+    <t>Os campos não devem aceitar dados diferentes do pedido no cadastro</t>
+  </si>
+  <si>
+    <t>LG-02</t>
+  </si>
+  <si>
+    <t>Verificar a quantidade de registros no campo de CPF</t>
+  </si>
+  <si>
+    <t>Inserir o máximo de números possíveis no campo de CPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O campo deve limitar a 11 caracteres </t>
+  </si>
+  <si>
+    <t>LG-03</t>
+  </si>
+  <si>
+    <t>LG-04</t>
+  </si>
+  <si>
+    <t>Verificar a quantidade de registros no campo de data de nascimento</t>
+  </si>
+  <si>
+    <t>Inserir o máximo de números possíveis no campo de data de nascimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O campo deve limitar a 8 caracteres </t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>o limitador não está funcionando</t>
+  </si>
+  <si>
+    <t>LG-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O campo de gmail deve exigir o @ </t>
+  </si>
+  <si>
+    <t>O campo de email deve exigir o @ durante o preenchimento</t>
+  </si>
+  <si>
+    <t>Sem o @ não será possível proseguir com o cadastro</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Caso de teste: Sistema funcionalidades</t>
+  </si>
+  <si>
+    <t>Caso de teste: Teste de carga</t>
   </si>
 </sst>
 </file>
@@ -139,13 +220,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="#_)"/>
-    <numFmt numFmtId="167" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="#_)"/>
+    <numFmt numFmtId="168" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.749961851863155"/>
@@ -341,8 +422,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,6 +634,18 @@
         <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -734,26 +834,26 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -786,7 +886,7 @@
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -794,108 +894,117 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="6" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="7" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="7" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="7" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="2" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="2" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="36" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="6" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="6" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="7" applyFill="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="7" applyFill="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="7" applyFill="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="7" applyFont="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="2" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="7" applyFont="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="2" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="37" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="7" applyFont="1">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="36" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="37" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="7" applyFont="1" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="38" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -953,7 +1062,363 @@
     <cellStyle name="Total" xfId="11" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="19" builtinId="3" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="74">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -979,9 +1444,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -998,7 +1460,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1038,7 +1500,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1078,7 +1540,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1118,7 +1580,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1158,7 +1620,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1198,7 +1660,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1238,7 +1700,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1278,7 +1740,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1317,13 +1779,809 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.749961851863155"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.749961851863155"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.749961851863155"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1418,12 +2676,12 @@
   </dxfs>
   <tableStyles count="1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Fatura" pivot="0" count="6" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="21"/>
-      <tableStyleElement type="headerRow" dxfId="20"/>
-      <tableStyleElement type="totalRow" dxfId="19"/>
-      <tableStyleElement type="lastColumn" dxfId="18"/>
-      <tableStyleElement type="firstRowStripe" dxfId="17"/>
-      <tableStyleElement type="secondRowStripe" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="73"/>
+      <tableStyleElement type="headerRow" dxfId="72"/>
+      <tableStyleElement type="totalRow" dxfId="71"/>
+      <tableStyleElement type="lastColumn" dxfId="70"/>
+      <tableStyleElement type="firstRowStripe" dxfId="69"/>
+      <tableStyleElement type="secondRowStripe" dxfId="68"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1509,13 +2767,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>1768157</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1095375</xdr:rowOff>
@@ -1551,12 +2809,212 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1615756" cy="942974"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF1C672-E30F-48A0-9B68-962D307DAE6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23622001" y="3429001"/>
+          <a:ext cx="1615756" cy="942974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1615756" cy="942974"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCD3341-0556-45D0-8ECE-A1CEF5E77E3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23622001" y="3429001"/>
+          <a:ext cx="1615756" cy="942974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1615756" cy="942974"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF00562-609D-4EE7-98F5-05752155D35C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23622001" y="3429001"/>
+          <a:ext cx="1615756" cy="942974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1615756" cy="942974"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65180CEA-2423-424D-969C-BC219E4ECFA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23622001" y="3429001"/>
+          <a:ext cx="1615756" cy="942974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1892780</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>685709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C3881E-FB67-43E0-A181-A84BE96942C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23498176" y="6734175"/>
+          <a:ext cx="1864204" cy="542834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="SimpleInvoice" displayName="SimpleInvoice" ref="B8:O20" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="B8:O20" xr:uid="{00000000-0009-0000-0100-000004000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="SimpleInvoice" displayName="SimpleInvoice" ref="B8:P20" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+  <autoFilter ref="B8:P20" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1571,22 +3029,111 @@
     <filterColumn colId="11" hiddenButton="1"/>
     <filterColumn colId="12" hiddenButton="1"/>
     <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case Id" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descrição" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Módulo " dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{CF04B7A9-81B3-4158-A41A-3D61396B05A2}" name="Ação" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Feature/Recurso" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Componente " dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{5E0D83E8-5859-4903-B2EC-FEE4179419A9}" name="Pré condição" dataDxfId="9" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{7B61C48B-94C9-40FF-893F-2E65329B0156}" name="Teste de Massa" dataDxfId="8" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{4B6EA81D-3AEE-4EF6-B229-C7FD5997CD5B}" name="Resultado esperado " dataDxfId="7" dataCellStyle="Moeda"/>
-    <tableColumn id="13" xr3:uid="{EEB37012-D5A1-420D-922F-07DE8EB2AF81}" name="Escolha um Tester" dataDxfId="6" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{959FA46A-C8FB-43E9-8079-90BC011AFE02}" name="Status" dataDxfId="5" dataCellStyle="Moeda"/>
-    <tableColumn id="14" xr3:uid="{D769DB85-6D51-4435-B1AE-2700ECD0F7DD}" name="Observação" dataDxfId="4" dataCellStyle="Moeda"/>
-    <tableColumn id="15" xr3:uid="{E269E2D1-9666-4A2D-8689-4CE8CD8FD75A}" name="Log ou Print" dataDxfId="3" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{6069F107-2BB4-4D92-885C-EDD8A1482887}" name="Teste realizado em:" dataDxfId="2" dataCellStyle="Moeda"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case Id" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descrição" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Módulo " dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{AF661F77-1151-4CAA-8C48-BA6A0E55A27C}" name="Tipo de teste" dataDxfId="51"/>
+    <tableColumn id="16" xr3:uid="{CF04B7A9-81B3-4158-A41A-3D61396B05A2}" name="Ação" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Feature/Recurso" dataDxfId="61"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Componente " dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{5E0D83E8-5859-4903-B2EC-FEE4179419A9}" name="Pré condição" dataDxfId="59" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{7B61C48B-94C9-40FF-893F-2E65329B0156}" name="Teste de Massa" dataDxfId="58" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{4B6EA81D-3AEE-4EF6-B229-C7FD5997CD5B}" name="Resultado esperado " dataDxfId="57" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{EEB37012-D5A1-420D-922F-07DE8EB2AF81}" name="Escolha um Tester" dataDxfId="56" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{959FA46A-C8FB-43E9-8079-90BC011AFE02}" name="Status" dataDxfId="55" dataCellStyle="Moeda"/>
+    <tableColumn id="14" xr3:uid="{D769DB85-6D51-4435-B1AE-2700ECD0F7DD}" name="Observação" dataDxfId="54" dataCellStyle="Moeda"/>
+    <tableColumn id="15" xr3:uid="{E269E2D1-9666-4A2D-8689-4CE8CD8FD75A}" name="Log ou Print" dataDxfId="53" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{6069F107-2BB4-4D92-885C-EDD8A1482887}" name="Teste realizado em:" dataDxfId="52" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="Fatura" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Lista de faturas com número, descrição, quantidade, preço unitário, desconto e preço do item."/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{04B3B707-AE09-4B90-AB98-1F9952638153}" name="SimpleInvoice3" displayName="SimpleInvoice3" ref="B23:P35" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="B23:P35" xr:uid="{04B3B707-AE09-4B90-AB98-1F9952638153}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{09E037B2-51ED-41EB-A5F6-B80D4E00964B}" name="Test Case Id" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{2AF77D94-D9B8-4710-8AE0-A0000F45DCD8}" name="Descrição" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{733395F8-02FA-46D5-A9B9-47A04BD1A2FE}" name="Módulo " dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{FF095F53-BD39-4F91-8BAD-7FF78A882C05}" name="Tipo de teste" dataDxfId="45"/>
+    <tableColumn id="16" xr3:uid="{E775437C-E874-4B7D-86DD-FC7D6C6B1AD9}" name="Ação" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{E1B4CA12-7775-4ECD-89DA-B6ACB373CEBE}" name="Feature/Recurso" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{6A4BCB5B-C93D-4934-A1BC-E8BD46A26A68}" name="Componente " dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{F3E9C7AF-C0DD-4E9D-BA6C-0ACB66AA2ED8}" name="Pré condição" dataDxfId="41" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{65D21BB2-9C3C-472C-8560-81AD0021B6CC}" name="Teste de Massa" dataDxfId="40" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{ED03BF91-2B4C-480B-A46A-D13448580F89}" name="Resultado esperado " dataDxfId="39" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{CBC09B6E-A7C3-4E6A-9C3F-6380A8718FE4}" name="Escolha um Tester" dataDxfId="38" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{ABA14DB3-3FDE-4108-93B6-626F63569CEE}" name="Status" dataDxfId="37" dataCellStyle="Moeda"/>
+    <tableColumn id="14" xr3:uid="{D2041988-F68D-477E-BF36-16982AEF2220}" name="Observação" dataDxfId="36" dataCellStyle="Moeda"/>
+    <tableColumn id="15" xr3:uid="{347B51D5-B04B-4F75-B394-52FAD9D90FDE}" name="Log ou Print" dataDxfId="35" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{39C4D759-C60D-4591-A831-CF631E6E3227}" name="Teste realizado em:" dataDxfId="34" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="Fatura" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Lista de faturas com número, descrição, quantidade, preço unitário, desconto e preço do item."/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DBAC0804-AF13-4EE3-9245-560DA93E936C}" name="SimpleInvoice4" displayName="SimpleInvoice4" ref="B38:P50" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="B38:P50" xr:uid="{DBAC0804-AF13-4EE3-9245-560DA93E936C}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{562F0AE7-A48A-41EF-8BC5-1529D5F9194A}" name="Test Case Id" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{60CCCF31-F4A5-4C50-93D1-B90409CF0303}" name="Descrição" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{5E1902B9-3721-4165-B4F1-38F392591849}" name="Módulo " dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{D34AFD24-C860-48AC-A608-CFEF6B7CD2BE}" name="Tipo de teste" dataDxfId="28"/>
+    <tableColumn id="16" xr3:uid="{B10AA081-C833-4246-A401-8868D813A274}" name="Ação" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{D0E756D9-B40B-46CD-813D-4023D2A9EEFD}" name="Feature/Recurso" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{3F3719B0-7B8F-4522-BE65-914F508E5009}" name="Componente " dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{61AAB105-CD89-4CEF-88E4-89E12A07DA47}" name="Pré condição" dataDxfId="24" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{26EF9B57-06E7-4CAE-A0D6-64AD3894F7FB}" name="Teste de Massa" dataDxfId="23" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{1508B4D5-7286-46DC-990B-C90C4450AA3F}" name="Resultado esperado " dataDxfId="22" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{4A5E00B1-D506-45E0-99E8-B13B673A4707}" name="Escolha um Tester" dataDxfId="21" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{90B62D6C-ED4D-4E7F-8BD8-CE9CF75E8A64}" name="Status" dataDxfId="20" dataCellStyle="Moeda"/>
+    <tableColumn id="14" xr3:uid="{D5B5AE65-BF20-4FDE-80F7-64A9CD0BD7D4}" name="Observação" dataDxfId="19" dataCellStyle="Moeda"/>
+    <tableColumn id="15" xr3:uid="{DAE06D88-140F-43C3-AEA4-FE0B64BCB78A}" name="Log ou Print" dataDxfId="18" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{A357B449-95E9-4D27-821B-38ECC2AC61F6}" name="Teste realizado em:" dataDxfId="17" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="Fatura" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Lista de faturas com número, descrição, quantidade, preço unitário, desconto e preço do item."/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{80202A6E-6C35-465C-85B3-085E41DBD493}" name="SimpleInvoice6" displayName="SimpleInvoice6" ref="B53:P65" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="B53:P65" xr:uid="{80202A6E-6C35-465C-85B3-085E41DBD493}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{C075881D-905B-4312-BBC7-71E74A0CE7EC}" name="Test Case Id" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{06803C1F-F88F-4CE6-ACFB-7DE9EE799B7A}" name="Descrição" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{82A36CBA-A8F6-4ED2-AFA5-CA3B8874F554}" name="Módulo " dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{16F85A6B-C64E-488B-8A54-DB7FAB894DD4}" name="Tipo de teste" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{1312C3BA-C06E-4622-9837-3AB32441C419}" name="Ação" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{177EBF04-F8EF-4A8A-9B18-0AB4992E5774}" name="Feature/Recurso" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{B5BC52CE-439A-4059-8AD8-28B0B4F95EF1}" name="Componente " dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{B7366245-66AF-48C8-A0E4-77488BFA0866}" name="Pré condição" dataDxfId="7" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{DA1F8942-1F7C-41EA-B60D-96A2C8D7BBC6}" name="Teste de Massa" dataDxfId="6" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{0C6CE9CF-E303-40A2-BD6D-81B6BBC91B2F}" name="Resultado esperado " dataDxfId="5" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{716BF0CC-6DCA-4A4A-B9D7-7D9D43501D3E}" name="Escolha um Tester" dataDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{23CF9D1E-57EE-46B8-A3BD-484C4AA6F082}" name="Status" dataDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="14" xr3:uid="{B3B67D21-4A01-49B1-87C7-50DCC4C822A9}" name="Observação" dataDxfId="2" dataCellStyle="Moeda"/>
+    <tableColumn id="15" xr3:uid="{6351294D-BE4E-4615-BFD4-814611013BD6}" name="Log ou Print" dataDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{7B205291-D3B5-4DDA-9951-1E5A7B98EAE3}" name="Teste realizado em:" dataDxfId="0" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="Fatura" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1828,10 +3375,10 @@
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:O8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1839,448 +3386,1466 @@
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="14" width="28.7109375" customWidth="1"/>
-    <col min="15" max="15" width="25" customWidth="1"/>
+    <col min="4" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="15" width="28.7109375" customWidth="1"/>
+    <col min="16" max="16" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:16" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+    </row>
+    <row r="2" spans="1:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23" t="s">
+      <c r="E2" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+    </row>
+    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-    </row>
-    <row r="4" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="15"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="30"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="30"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="G8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="H8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="I8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="J8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="K8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="L8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="M8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="N8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="O8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="28" t="s">
+      <c r="P8" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+    <row r="9" spans="1:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="G9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="H9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="I9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="J9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="K9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="L9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="33" t="s">
+      <c r="M9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="N9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="36">
+      <c r="O9" s="23"/>
+      <c r="P9" s="26">
         <v>44497</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-    </row>
-    <row r="11" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-    </row>
-    <row r="12" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-    </row>
-    <row r="13" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-    </row>
-    <row r="14" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-    </row>
-    <row r="15" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-    </row>
-    <row r="16" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-    </row>
-    <row r="17" spans="2:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-    </row>
-    <row r="18" spans="2:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-    </row>
-    <row r="19" spans="2:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-    </row>
-    <row r="20" spans="2:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-    </row>
-    <row r="21" spans="2:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="2:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="2:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+    <row r="10" spans="1:16" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="24"/>
+      <c r="P10" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="24"/>
+      <c r="P11" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="24"/>
+      <c r="P12" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="24"/>
+      <c r="P13" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+    </row>
+    <row r="15" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+    </row>
+    <row r="16" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+    </row>
+    <row r="17" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+    </row>
+    <row r="18" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+    </row>
+    <row r="19" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+    </row>
+    <row r="20" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+    </row>
+    <row r="21" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="23"/>
+      <c r="P24" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+    </row>
+    <row r="26" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+    </row>
+    <row r="27" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+    </row>
+    <row r="28" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+    </row>
+    <row r="29" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+    </row>
+    <row r="30" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+    </row>
+    <row r="31" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+    </row>
+    <row r="32" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+    </row>
+    <row r="33" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+    </row>
+    <row r="34" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+    </row>
+    <row r="35" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+    </row>
+    <row r="37" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O38" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="23"/>
+      <c r="P39" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+    </row>
+    <row r="41" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+    </row>
+    <row r="42" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+    </row>
+    <row r="43" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+    </row>
+    <row r="44" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+    </row>
+    <row r="45" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+    </row>
+    <row r="46" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+    </row>
+    <row r="47" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+    </row>
+    <row r="48" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+    </row>
+    <row r="49" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+    </row>
+    <row r="50" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+    </row>
+    <row r="52" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M53" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N53" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O53" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P53" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L54" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M54" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N54" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O54" s="23"/>
+      <c r="P54" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+    </row>
+    <row r="56" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+    </row>
+    <row r="57" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+    </row>
+    <row r="58" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+    </row>
+    <row r="59" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+    </row>
+    <row r="60" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+    </row>
+    <row r="61" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+    </row>
+    <row r="62" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+    </row>
+    <row r="63" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+    </row>
+    <row r="64" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+    </row>
+    <row r="65" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1" sort="0"/>
-  <mergeCells count="10">
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
+  <mergeCells count="9">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations xWindow="760" yWindow="637" count="20">
+  <dataValidations xWindow="760" yWindow="637" count="21">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o endereço de cobrança nesta célula." sqref="C5" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o endereço de cobrança na célula à direita." sqref="B5" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a origem da cobrança na célula à direita." sqref="B4" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número de fax nesta célula." sqref="D5:F5" xr:uid="{00000000-0002-0000-0000-000014000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número de telefone nesta célula." sqref="D4:F4" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número de fax nesta célula." sqref="D5:G5" xr:uid="{00000000-0002-0000-0000-000014000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número de telefone nesta célula." sqref="D4:G4" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a cidade, o estado e o CEP da empresa nesta célula." sqref="B3:C3" xr:uid="{00000000-0002-0000-0000-000016000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Crie uma fatura simples nesta planilha." sqref="A1" xr:uid="{00000000-0002-0000-0000-000018000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o endereço da empresa nesta célula." sqref="B2:C2" xr:uid="{00000000-0002-0000-0000-000019000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o endereço de email nesta célula." sqref="D6:F6" xr:uid="{00000000-0002-0000-0000-00001A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número de telefone da empresa nesta célula." sqref="D2:F2" xr:uid="{00000000-0002-0000-0000-00001B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número do fax da empresa nesta célula." sqref="D3:F3" xr:uid="{00000000-0002-0000-0000-00001C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o endereço de email nesta célula." sqref="D6:G6" xr:uid="{00000000-0002-0000-0000-00001A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número de telefone da empresa nesta célula." sqref="D2:G2" xr:uid="{00000000-0002-0000-0000-00001B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número do fax da empresa nesta célula." sqref="D3:G3" xr:uid="{00000000-0002-0000-0000-00001C000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a origem da cobrança nesta célula." sqref="C4" xr:uid="{00000000-0002-0000-0000-00001E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o destino da fatura na célula à direita." sqref="B7" xr:uid="{00000000-0002-0000-0000-00001F000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o destino da fatura nesta célula." sqref="C7" xr:uid="{00000000-0002-0000-0000-000020000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o destino da fatura na célula à direita." sqref="B7 B22 B37 B52" xr:uid="{00000000-0002-0000-0000-00001F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o destino da fatura nesta célula." sqref="C7 C22 C37 C52" xr:uid="{00000000-0002-0000-0000-000020000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Modifique o nome da empresa nesta célula. Insira o endereço, o telefone, o fax, o email e o site da empresa nas células B2 a G3. Insira os detalhes de cobrança nas células B4 a G7." sqref="B1:C1" xr:uid="{9F060523-3848-4923-9313-3BDF96BBBD27}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a data da fatura na célula à direita." sqref="G5:N5" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número da fatura na célula à direita." sqref="G4:N4" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o site da empresa nesta célula." sqref="G3:N3" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o endereço de email da empresa nesta célula." sqref="G2:O2" xr:uid="{00000000-0002-0000-0000-00001D000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K20" xr:uid="{6788DBE9-7B95-4B8C-BE68-509EF6CEB05F}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a data da fatura na célula à direita." sqref="H5:O5" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número da fatura na célula à direita." sqref="H4:O4" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o site da empresa nesta célula." sqref="H3:O3" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o endereço de email da empresa nesta célula." sqref="H2:P2" xr:uid="{00000000-0002-0000-0000-00001D000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L20 L24:L35 L39:L50 L54:L65" xr:uid="{6788DBE9-7B95-4B8C-BE68-509EF6CEB05F}">
       <formula1>"Caio,Vinicius,João,Luis,Lucas G,Lucas F"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:E65 E24:E35 E39:E50 E9:E20" xr:uid="{3E10819A-B72F-4549-A018-53739CE06933}">
+      <formula1>"Conteúdo,Bando de dados,Interface,Usabilidade,Compatibilidade,Componentes,Navegação,Configuração,Segurança,Performance,Cargas,Stress"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -2290,8 +4855,11 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="4">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documentos/Arquitetura/Uat esboço.xlsx
+++ b/Documentos/Arquitetura/Uat esboço.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA1582F-1819-4911-AE1B-17A1CFA994C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2773CBC5-A54B-4F98-B3ED-05F5844A2152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
   <si>
     <t>Descrição</t>
   </si>
@@ -213,6 +213,18 @@
   </si>
   <si>
     <t>Caso de teste: Teste de carga</t>
+  </si>
+  <si>
+    <t>LG-06</t>
+  </si>
+  <si>
+    <t>Verificar se os campos de cadastro do investidor e dev estão validando/funcionando da mesma maneira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navegar até a página de login. 1 - Página Home                                   2 - Clicar em cadastrar como dev  3 - Clicar em cadastrar como Investidor </t>
+  </si>
+  <si>
+    <t>O modelo de validação de investidor e dev devem ser os mesmos, assim como os campos em comuns como CPF, NOME, DATA NASC, EMAIL, SENHA e ETC</t>
   </si>
 </sst>
 </file>
@@ -886,7 +898,7 @@
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -968,6 +980,33 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="24" fillId="37" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="37" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="7" applyFont="1" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="38" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="6" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="7" applyFont="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="7" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -980,31 +1019,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="6" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="7" applyFont="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="7" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="24" fillId="37" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="24" fillId="37" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="7" applyFont="1" applyFill="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="38" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2204,15 +2222,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2536,6 +2545,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3035,18 +3053,18 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case Id" dataDxfId="65"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descrição" dataDxfId="64"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Módulo " dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{AF661F77-1151-4CAA-8C48-BA6A0E55A27C}" name="Tipo de teste" dataDxfId="51"/>
-    <tableColumn id="16" xr3:uid="{CF04B7A9-81B3-4158-A41A-3D61396B05A2}" name="Ação" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Feature/Recurso" dataDxfId="61"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Componente " dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{5E0D83E8-5859-4903-B2EC-FEE4179419A9}" name="Pré condição" dataDxfId="59" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{7B61C48B-94C9-40FF-893F-2E65329B0156}" name="Teste de Massa" dataDxfId="58" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{4B6EA81D-3AEE-4EF6-B229-C7FD5997CD5B}" name="Resultado esperado " dataDxfId="57" dataCellStyle="Moeda"/>
-    <tableColumn id="13" xr3:uid="{EEB37012-D5A1-420D-922F-07DE8EB2AF81}" name="Escolha um Tester" dataDxfId="56" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{959FA46A-C8FB-43E9-8079-90BC011AFE02}" name="Status" dataDxfId="55" dataCellStyle="Moeda"/>
-    <tableColumn id="14" xr3:uid="{D769DB85-6D51-4435-B1AE-2700ECD0F7DD}" name="Observação" dataDxfId="54" dataCellStyle="Moeda"/>
-    <tableColumn id="15" xr3:uid="{E269E2D1-9666-4A2D-8689-4CE8CD8FD75A}" name="Log ou Print" dataDxfId="53" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{6069F107-2BB4-4D92-885C-EDD8A1482887}" name="Teste realizado em:" dataDxfId="52" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{AF661F77-1151-4CAA-8C48-BA6A0E55A27C}" name="Tipo de teste" dataDxfId="62"/>
+    <tableColumn id="16" xr3:uid="{CF04B7A9-81B3-4158-A41A-3D61396B05A2}" name="Ação" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Feature/Recurso" dataDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Componente " dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{5E0D83E8-5859-4903-B2EC-FEE4179419A9}" name="Pré condição" dataDxfId="58" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{7B61C48B-94C9-40FF-893F-2E65329B0156}" name="Teste de Massa" dataDxfId="57" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{4B6EA81D-3AEE-4EF6-B229-C7FD5997CD5B}" name="Resultado esperado " dataDxfId="56" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{EEB37012-D5A1-420D-922F-07DE8EB2AF81}" name="Escolha um Tester" dataDxfId="55" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{959FA46A-C8FB-43E9-8079-90BC011AFE02}" name="Status" dataDxfId="54" dataCellStyle="Moeda"/>
+    <tableColumn id="14" xr3:uid="{D769DB85-6D51-4435-B1AE-2700ECD0F7DD}" name="Observação" dataDxfId="53" dataCellStyle="Moeda"/>
+    <tableColumn id="15" xr3:uid="{E269E2D1-9666-4A2D-8689-4CE8CD8FD75A}" name="Log ou Print" dataDxfId="52" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{6069F107-2BB4-4D92-885C-EDD8A1482887}" name="Teste realizado em:" dataDxfId="51" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="Fatura" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3377,8 +3395,8 @@
   </sheetPr>
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3394,17 +3412,17 @@
   <sheetData>
     <row r="1" spans="1:16" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="31"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
@@ -3415,19 +3433,19 @@
       <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -3438,19 +3456,19 @@
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
@@ -3464,10 +3482,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -3478,12 +3496,12 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="30"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -3494,12 +3512,12 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -3641,7 +3659,7 @@
       <c r="H10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="31" t="s">
         <v>39</v>
       </c>
       <c r="J10" s="24" t="s">
@@ -3791,16 +3809,34 @@
         <v>44497</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
+    <row r="14" spans="1:16" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>63</v>
+      </c>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
@@ -3981,7 +4017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
         <v>20</v>
       </c>
@@ -4810,15 +4846,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1" sort="0"/>
   <mergeCells count="9">
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations xWindow="760" yWindow="637" count="21">

--- a/Documentos/Arquitetura/Uat esboço.xlsx
+++ b/Documentos/Arquitetura/Uat esboço.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2773CBC5-A54B-4F98-B3ED-05F5844A2152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66B48C8-471B-4B08-B615-32E5C96A36E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="87">
   <si>
     <t>Descrição</t>
   </si>
@@ -209,9 +209,6 @@
     <t>Sistema</t>
   </si>
   <si>
-    <t>Caso de teste: Sistema funcionalidades</t>
-  </si>
-  <si>
     <t>Caso de teste: Teste de carga</t>
   </si>
   <si>
@@ -225,6 +222,78 @@
   </si>
   <si>
     <t>O modelo de validação de investidor e dev devem ser os mesmos, assim como os campos em comuns como CPF, NOME, DATA NASC, EMAIL, SENHA e ETC</t>
+  </si>
+  <si>
+    <t>Caso de teste: Sistema funcionalidades Tela Home</t>
+  </si>
+  <si>
+    <t>HM-001</t>
+  </si>
+  <si>
+    <t>HM-002</t>
+  </si>
+  <si>
+    <t>HM-003</t>
+  </si>
+  <si>
+    <t>HM-004</t>
+  </si>
+  <si>
+    <t>HM-005</t>
+  </si>
+  <si>
+    <t>HM-006</t>
+  </si>
+  <si>
+    <t>HM-007</t>
+  </si>
+  <si>
+    <t>HM-008</t>
+  </si>
+  <si>
+    <t>Certificar que os botões no menu estão redirecionando para suas respectivas telas</t>
+  </si>
+  <si>
+    <t>Website Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clique </t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Botões</t>
+  </si>
+  <si>
+    <t>Navegar até a página de Home. 1 - Página Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clicar nos botões </t>
+  </si>
+  <si>
+    <t>Devo ser redirecionado para as respectivas telas clicadas</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Certificar que a logo no menu retorna para a home</t>
+  </si>
+  <si>
+    <t>Imagem(botão)</t>
+  </si>
+  <si>
+    <t>Navegar até a página de Login. 1 - Página Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clicar nos na imagem da logo </t>
+  </si>
+  <si>
+    <t>Devo ser redirecionado para a home do sistema</t>
+  </si>
+  <si>
+    <t>Certificar que os botões de login(Dev e Investidor) redirecionam para as páginas de login respectivas</t>
   </si>
 </sst>
 </file>
@@ -232,11 +301,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="#_)"/>
-    <numFmt numFmtId="168" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="#_)"/>
+    <numFmt numFmtId="167" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -846,26 +915,26 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -898,7 +967,7 @@
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -944,10 +1013,10 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="7" applyFill="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="2" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="2" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="2" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="2" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
@@ -962,38 +1031,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="36" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="36" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="37" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="37" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="37" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="37" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="7" applyFont="1" applyFill="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="38" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="38" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="6" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1007,22 +1094,7 @@
     <xf numFmtId="0" fontId="27" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1098,7 +1170,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1138,7 +1210,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1178,7 +1250,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1218,7 +1290,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1258,7 +1330,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1298,7 +1370,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1338,7 +1410,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1378,7 +1450,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1478,7 +1550,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1518,7 +1590,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1558,7 +1630,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1598,7 +1670,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1638,7 +1710,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1678,7 +1750,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1718,7 +1790,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1758,7 +1830,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1858,7 +1930,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1898,7 +1970,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1938,7 +2010,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1978,7 +2050,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2018,7 +2090,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2058,7 +2130,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2098,7 +2170,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2138,7 +2210,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2238,7 +2310,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2278,7 +2350,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2318,7 +2390,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2358,7 +2430,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2398,7 +2470,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2438,7 +2510,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2478,7 +2550,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2518,7 +2590,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2908,11 +2980,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
+      <xdr:colOff>581027</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1615756" cy="942974"/>
+    <xdr:ext cx="809624" cy="472506"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Imagem 5">
@@ -2934,8 +3006,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23622001" y="3429001"/>
-          <a:ext cx="1615756" cy="942974"/>
+          <a:off x="24050627" y="20526376"/>
+          <a:ext cx="809624" cy="472506"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3395,8 +3467,8 @@
   </sheetPr>
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3412,17 +3484,17 @@
   <sheetData>
     <row r="1" spans="1:16" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="32"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
@@ -3433,10 +3505,10 @@
       <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
@@ -3456,10 +3528,10 @@
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
@@ -3482,10 +3554,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -3496,12 +3568,12 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="39"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -3512,12 +3584,12 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -3811,10 +3883,10 @@
     </row>
     <row r="14" spans="1:16" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>61</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>37</v>
@@ -3828,14 +3900,14 @@
       <c r="G14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="32" t="s">
         <v>26</v>
       </c>
       <c r="I14" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="33" t="s">
         <v>62</v>
-      </c>
-      <c r="J14" s="41" t="s">
-        <v>63</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
@@ -4251,7 +4323,7 @@
     </row>
     <row r="37" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="6"/>
@@ -4314,39 +4386,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" ht="45" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>36</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="J39" s="21" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="M39" s="23" t="s">
         <v>31</v>
@@ -4356,45 +4428,103 @@
       </c>
       <c r="O39" s="23"/>
       <c r="P39" s="26">
-        <v>44497</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K40" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L40" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="M40" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-    </row>
-    <row r="41" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
+      <c r="P40" s="42">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K41" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="M41" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
+      <c r="P41" s="42">
+        <v>44516</v>
+      </c>
     </row>
     <row r="42" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="19"/>
+      <c r="B42" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="C42" s="19"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
@@ -4411,7 +4541,9 @@
       <c r="P42" s="24"/>
     </row>
     <row r="43" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="19"/>
+      <c r="B43" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="C43" s="19"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
@@ -4428,7 +4560,9 @@
       <c r="P43" s="24"/>
     </row>
     <row r="44" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="19"/>
+      <c r="B44" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="C44" s="19"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
@@ -4445,7 +4579,9 @@
       <c r="P44" s="24"/>
     </row>
     <row r="45" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="19"/>
+      <c r="B45" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="C45" s="19"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
@@ -4462,7 +4598,9 @@
       <c r="P45" s="24"/>
     </row>
     <row r="46" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="19"/>
+      <c r="B46" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="C46" s="19"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
@@ -4548,7 +4686,7 @@
     </row>
     <row r="52" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="6"/>
@@ -4880,7 +5018,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L20 L24:L35 L39:L50 L54:L65" xr:uid="{6788DBE9-7B95-4B8C-BE68-509EF6CEB05F}">
       <formula1>"Caio,Vinicius,João,Luis,Lucas G,Lucas F"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:E65 E24:E35 E39:E50 E9:E20" xr:uid="{3E10819A-B72F-4549-A018-53739CE06933}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:E65 E24:E35 E9:E20 E39:E50" xr:uid="{3E10819A-B72F-4549-A018-53739CE06933}">
       <formula1>"Conteúdo,Bando de dados,Interface,Usabilidade,Compatibilidade,Componentes,Navegação,Configuração,Segurança,Performance,Cargas,Stress"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documentos/Arquitetura/Uat esboço.xlsx
+++ b/Documentos/Arquitetura/Uat esboço.xlsx
@@ -3,20 +3,40 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2773CBC5-A54B-4F98-B3ED-05F5844A2152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985ADDE6-F797-46FB-849C-1E42150F6295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fatura" sheetId="1" r:id="rId1"/>
+    <sheet name="Tela Inicial" sheetId="1" r:id="rId1"/>
+    <sheet name="Website Login" sheetId="10" r:id="rId2"/>
+    <sheet name="Website Cadastro" sheetId="9" r:id="rId3"/>
+    <sheet name="Upload" sheetId="4" r:id="rId4"/>
+    <sheet name="Tela Dev" sheetId="5" r:id="rId5"/>
+    <sheet name="Investidor" sheetId="6" r:id="rId6"/>
+    <sheet name="Modal" sheetId="7" r:id="rId7"/>
+    <sheet name="Cadastro" sheetId="2" r:id="rId8"/>
+    <sheet name="Planilha7" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="ColumnTitle1" localSheetId="2">SimpleInvoice13[[#Headers],[Test Case Id]]</definedName>
+    <definedName name="ColumnTitle1" localSheetId="1">SimpleInvoice17[[#Headers],[Test Case Id]]</definedName>
     <definedName name="ColumnTitle1">SimpleInvoice[[#Headers],[Test Case Id]]</definedName>
-    <definedName name="Nome_da_Empresa">Fatura!$B$1</definedName>
-    <definedName name="RowTitleRegion1..C7">Fatura!$B$4</definedName>
-    <definedName name="RowTitleRegion2..G5">Fatura!$H$4</definedName>
-    <definedName name="RowTitleRegion3..G26">Fatura!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Fatura!$8:$8</definedName>
+    <definedName name="Nome_da_Empresa" localSheetId="2">'Website Cadastro'!$B$1</definedName>
+    <definedName name="Nome_da_Empresa" localSheetId="1">'Website Login'!$B$1</definedName>
+    <definedName name="Nome_da_Empresa">'Tela Inicial'!$B$1</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="2">'Website Cadastro'!$B$4</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="1">'Website Login'!$B$4</definedName>
+    <definedName name="RowTitleRegion1..C7">'Tela Inicial'!$B$4</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="2">'Website Cadastro'!$H$4</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="1">'Website Login'!$H$4</definedName>
+    <definedName name="RowTitleRegion2..G5">'Tela Inicial'!$H$4</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="2">'Website Cadastro'!#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="1">'Website Login'!#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26">'Tela Inicial'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Tela Inicial'!$8:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Website Cadastro'!$8:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Website Login'!$8:$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="68">
   <si>
     <t>Descrição</t>
   </si>
@@ -90,9 +110,6 @@
   </si>
   <si>
     <t>Ação</t>
-  </si>
-  <si>
-    <t>Caso de teste: Website, funcionalidades do front end para o cliente</t>
   </si>
   <si>
     <t>EX: LG-001</t>
@@ -225,6 +242,21 @@
   </si>
   <si>
     <t>O modelo de validação de investidor e dev devem ser os mesmos, assim como os campos em comuns como CPF, NOME, DATA NASC, EMAIL, SENHA e ETC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caso de teste: Website, funcionalidades </t>
+  </si>
+  <si>
+    <t>Caso de teste: Website, funcionalidades do front end para o cliente (login e cadastro)</t>
+  </si>
+  <si>
+    <t>Website Cadastro</t>
+  </si>
+  <si>
+    <t>Caso de teste: Website Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website Login </t>
   </si>
 </sst>
 </file>
@@ -898,7 +930,7 @@
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -998,14 +1030,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="7" applyFont="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="7" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1019,11 +1054,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="6" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="7" applyFont="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="7" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1080,7 +1133,7 @@
     <cellStyle name="Total" xfId="11" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="19" builtinId="3" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="227">
     <dxf>
       <font>
         <b val="0"/>
@@ -2602,6 +2655,3426 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.749961851863155"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.749961851863155"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.749961851863155"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.749961851863155"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.749961851863155"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.749961851863155"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.749961851863155"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.749961851863155"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.749961851863155"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -2694,12 +6167,12 @@
   </dxfs>
   <tableStyles count="1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Fatura" pivot="0" count="6" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="73"/>
-      <tableStyleElement type="headerRow" dxfId="72"/>
-      <tableStyleElement type="totalRow" dxfId="71"/>
-      <tableStyleElement type="lastColumn" dxfId="70"/>
-      <tableStyleElement type="firstRowStripe" dxfId="69"/>
-      <tableStyleElement type="secondRowStripe" dxfId="68"/>
+      <tableStyleElement type="wholeTable" dxfId="226"/>
+      <tableStyleElement type="headerRow" dxfId="225"/>
+      <tableStyleElement type="totalRow" dxfId="224"/>
+      <tableStyleElement type="lastColumn" dxfId="223"/>
+      <tableStyleElement type="firstRowStripe" dxfId="222"/>
+      <tableStyleElement type="secondRowStripe" dxfId="221"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3030,8 +6503,677 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1768157</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1095375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E098C57B-CD6C-41CA-B1B3-C355BB038BBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23622001" y="3429001"/>
+          <a:ext cx="1615756" cy="942974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1615756" cy="942974"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C11C75-ABB2-42AC-B764-4A120CFC4C6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23622001" y="13896976"/>
+          <a:ext cx="1615756" cy="942974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1615756" cy="942974"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA90FF3-9A4D-447C-A27A-95A992645953}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23622001" y="13896976"/>
+          <a:ext cx="1615756" cy="942974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1615756" cy="942974"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20274AF4-2DFE-4D4F-B851-65A7060E0412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23622001" y="20631151"/>
+          <a:ext cx="1615756" cy="942974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1615756" cy="942974"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19BB93C9-7CE8-4F26-986C-2650A4088E3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23622001" y="27060526"/>
+          <a:ext cx="1615756" cy="942974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1892780</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>685709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9890E46-583B-43A2-83E2-6781ED00E3F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23498176" y="6734175"/>
+          <a:ext cx="1864204" cy="542834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1768157</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1095375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA6D3D2C-0F48-4235-A460-BEC7C0B49AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23622001" y="3429001"/>
+          <a:ext cx="1615756" cy="942974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1615756" cy="942974"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15B3A26-2501-4038-995F-1940A40A07A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23622001" y="13896976"/>
+          <a:ext cx="1615756" cy="942974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1615756" cy="942974"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2384AECD-EA89-426C-9F36-B379CA70AF4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23622001" y="13896976"/>
+          <a:ext cx="1615756" cy="942974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1615756" cy="942974"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6873C81E-EA3B-4499-850E-EE06C81174B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23622001" y="20631151"/>
+          <a:ext cx="1615756" cy="942974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1615756" cy="942974"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7378A491-C939-45D2-93EE-397775D72276}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23622001" y="27060526"/>
+          <a:ext cx="1615756" cy="942974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1892780</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>685709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D2C519-334A-4140-A2CE-B56A2E563ACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23498176" y="6734175"/>
+          <a:ext cx="1864204" cy="542834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1768157</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1095375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B7CD2A-4DAD-4A12-ABD2-AE4F7E8AFEBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23622001" y="3429001"/>
+          <a:ext cx="1615756" cy="942974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1615756" cy="942974"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A170F0-0290-4B93-8619-F96D261E7E2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23622001" y="20631151"/>
+          <a:ext cx="1615756" cy="942974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1615756" cy="942974"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagem 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13B9549F-F9A8-4938-B1AE-F1A51676EDDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23622001" y="27060526"/>
+          <a:ext cx="1615756" cy="942974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>16355</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965B2DDD-FE5D-4524-8EA3-2250FAE0339D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23498176" y="6734175"/>
+          <a:ext cx="1864204" cy="542834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="SimpleInvoice" displayName="SimpleInvoice" ref="B8:P20" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="SimpleInvoice" displayName="SimpleInvoice" ref="B8:P20" totalsRowShown="0" headerRowDxfId="220" dataDxfId="219">
   <autoFilter ref="B8:P20" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3050,21 +7192,137 @@
     <filterColumn colId="14" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case Id" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descrição" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Módulo " dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{AF661F77-1151-4CAA-8C48-BA6A0E55A27C}" name="Tipo de teste" dataDxfId="62"/>
-    <tableColumn id="16" xr3:uid="{CF04B7A9-81B3-4158-A41A-3D61396B05A2}" name="Ação" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Feature/Recurso" dataDxfId="60"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Componente " dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{5E0D83E8-5859-4903-B2EC-FEE4179419A9}" name="Pré condição" dataDxfId="58" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{7B61C48B-94C9-40FF-893F-2E65329B0156}" name="Teste de Massa" dataDxfId="57" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{4B6EA81D-3AEE-4EF6-B229-C7FD5997CD5B}" name="Resultado esperado " dataDxfId="56" dataCellStyle="Moeda"/>
-    <tableColumn id="13" xr3:uid="{EEB37012-D5A1-420D-922F-07DE8EB2AF81}" name="Escolha um Tester" dataDxfId="55" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{959FA46A-C8FB-43E9-8079-90BC011AFE02}" name="Status" dataDxfId="54" dataCellStyle="Moeda"/>
-    <tableColumn id="14" xr3:uid="{D769DB85-6D51-4435-B1AE-2700ECD0F7DD}" name="Observação" dataDxfId="53" dataCellStyle="Moeda"/>
-    <tableColumn id="15" xr3:uid="{E269E2D1-9666-4A2D-8689-4CE8CD8FD75A}" name="Log ou Print" dataDxfId="52" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{6069F107-2BB4-4D92-885C-EDD8A1482887}" name="Teste realizado em:" dataDxfId="51" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case Id" dataDxfId="218"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descrição" dataDxfId="217"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Módulo " dataDxfId="216"/>
+    <tableColumn id="5" xr3:uid="{AF661F77-1151-4CAA-8C48-BA6A0E55A27C}" name="Tipo de teste" dataDxfId="215"/>
+    <tableColumn id="16" xr3:uid="{CF04B7A9-81B3-4158-A41A-3D61396B05A2}" name="Ação" dataDxfId="214"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Feature/Recurso" dataDxfId="213"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Componente " dataDxfId="212"/>
+    <tableColumn id="4" xr3:uid="{5E0D83E8-5859-4903-B2EC-FEE4179419A9}" name="Pré condição" dataDxfId="211" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{7B61C48B-94C9-40FF-893F-2E65329B0156}" name="Teste de Massa" dataDxfId="210" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{4B6EA81D-3AEE-4EF6-B229-C7FD5997CD5B}" name="Resultado esperado " dataDxfId="209" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{EEB37012-D5A1-420D-922F-07DE8EB2AF81}" name="Escolha um Tester" dataDxfId="208" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{959FA46A-C8FB-43E9-8079-90BC011AFE02}" name="Status" dataDxfId="207" dataCellStyle="Moeda"/>
+    <tableColumn id="14" xr3:uid="{D769DB85-6D51-4435-B1AE-2700ECD0F7DD}" name="Observação" dataDxfId="206" dataCellStyle="Moeda"/>
+    <tableColumn id="15" xr3:uid="{E269E2D1-9666-4A2D-8689-4CE8CD8FD75A}" name="Log ou Print" dataDxfId="205" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{6069F107-2BB4-4D92-885C-EDD8A1482887}" name="Teste realizado em:" dataDxfId="204" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="Fatura" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Lista de faturas com número, descrição, quantidade, preço unitário, desconto e preço do item."/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3EE6CCF1-23F6-406D-860A-B8FD555FFD54}" name="SimpleInvoice314" displayName="SimpleInvoice314" ref="B23:P35" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
+  <autoFilter ref="B23:P35" xr:uid="{04B3B707-AE09-4B90-AB98-1F9952638153}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{10E6860A-9666-4934-918D-DFFA66CBF180}" name="Test Case Id" dataDxfId="116"/>
+    <tableColumn id="2" xr3:uid="{F883F927-BDE8-4A74-A07F-677AC07BC8DD}" name="Descrição" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{381BE31E-4DDC-43EB-A1AC-7E6D4FBEC56C}" name="Módulo " dataDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{01EDADEF-7653-4EFE-AFB4-721B6543B541}" name="Tipo de teste" dataDxfId="113"/>
+    <tableColumn id="16" xr3:uid="{B7298E5D-069A-46B3-9AC8-5DBF8D507BE7}" name="Ação" dataDxfId="112"/>
+    <tableColumn id="8" xr3:uid="{54A3C691-31D4-4D8B-923B-BB095AA89001}" name="Feature/Recurso" dataDxfId="111"/>
+    <tableColumn id="10" xr3:uid="{663900D5-55B0-4D43-9B54-D32658141561}" name="Componente " dataDxfId="110"/>
+    <tableColumn id="4" xr3:uid="{AB730017-8DEF-4D22-B4ED-47615D8D74D6}" name="Pré condição" dataDxfId="109" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{7DAA79F0-8DEB-40F9-9779-A893023B03FE}" name="Teste de Massa" dataDxfId="108" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{B3C943EF-F18B-4297-8811-D9FC52D66DC0}" name="Resultado esperado " dataDxfId="107" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{FBD1EC07-687C-41B5-9942-68C78BC978C0}" name="Escolha um Tester" dataDxfId="106" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{245D6CDF-32D5-4253-92AE-FB6982CAB374}" name="Status" dataDxfId="105" dataCellStyle="Moeda"/>
+    <tableColumn id="14" xr3:uid="{68419273-FF95-41CB-9A34-9729A323C1D0}" name="Observação" dataDxfId="104" dataCellStyle="Moeda"/>
+    <tableColumn id="15" xr3:uid="{3AB6BEE5-601D-4C02-B009-7F935D263C7D}" name="Log ou Print" dataDxfId="103" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{A68A5974-C269-4A9A-BD2A-45870A43F116}" name="Teste realizado em:" dataDxfId="102" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="Fatura" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Lista de faturas com número, descrição, quantidade, preço unitário, desconto e preço do item."/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{142D31B1-FFF0-4B0B-9974-1462FDF63F2C}" name="SimpleInvoice415" displayName="SimpleInvoice415" ref="B38:P50" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+  <autoFilter ref="B38:P50" xr:uid="{DBAC0804-AF13-4EE3-9245-560DA93E936C}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{3A87F088-EDF1-47A6-986A-2CAE9AE6F515}" name="Test Case Id" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{3AE67829-2914-4D68-A879-515BAE457262}" name="Descrição" dataDxfId="98"/>
+    <tableColumn id="7" xr3:uid="{994C5E1F-A3A3-4CE4-A00D-49A6FADD08EB}" name="Módulo " dataDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{8CE80D11-F882-4D94-9152-243D3BB289FB}" name="Tipo de teste" dataDxfId="96"/>
+    <tableColumn id="16" xr3:uid="{6E863022-2901-4234-AE52-A0BCBCA73251}" name="Ação" dataDxfId="95"/>
+    <tableColumn id="8" xr3:uid="{D4FFC4AA-C8F1-4FB9-8654-B28DCC406D25}" name="Feature/Recurso" dataDxfId="94"/>
+    <tableColumn id="10" xr3:uid="{8D71F103-0468-492F-8336-13E05F97F0C3}" name="Componente " dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{150BFAA4-F4D3-40FB-90AC-5E2555F3B48D}" name="Pré condição" dataDxfId="92" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{07D949FA-107E-491D-87B3-FBCB13D1A6FB}" name="Teste de Massa" dataDxfId="91" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{B32E7699-01C8-40BC-9923-433AE273DDF6}" name="Resultado esperado " dataDxfId="90" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{11026B65-B0D8-45DF-AAE7-FC76ECED5607}" name="Escolha um Tester" dataDxfId="89" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{FB246416-9C96-40F8-8149-2AABC094B2FC}" name="Status" dataDxfId="88" dataCellStyle="Moeda"/>
+    <tableColumn id="14" xr3:uid="{5A87C010-2C55-4F3F-880B-9F76E6719C79}" name="Observação" dataDxfId="87" dataCellStyle="Moeda"/>
+    <tableColumn id="15" xr3:uid="{0CD2B7D7-AD36-471A-8888-401B952E4B04}" name="Log ou Print" dataDxfId="86" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{8267256F-97F8-4427-89F6-B0346C6BA10C}" name="Teste realizado em:" dataDxfId="85" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="Fatura" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Lista de faturas com número, descrição, quantidade, preço unitário, desconto e preço do item."/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C88A30A4-514D-4525-A71C-F15CBEE32C2E}" name="SimpleInvoice616" displayName="SimpleInvoice616" ref="B53:P65" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+  <autoFilter ref="B53:P65" xr:uid="{80202A6E-6C35-465C-85B3-085E41DBD493}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{19485FF5-53DE-4C39-97AD-F21515523C1A}" name="Test Case Id" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{FCA35FBD-BF06-4A3A-9075-1F2970F82FE9}" name="Descrição" dataDxfId="81"/>
+    <tableColumn id="7" xr3:uid="{6982CC8A-E508-41F3-9C06-4BC95EBAF29A}" name="Módulo " dataDxfId="80"/>
+    <tableColumn id="5" xr3:uid="{16E50ADD-4C6D-4B81-89B6-18943C58DCEA}" name="Tipo de teste" dataDxfId="79"/>
+    <tableColumn id="16" xr3:uid="{9951A2D8-E7BB-4E76-8EDE-DDE42AC6FE05}" name="Ação" dataDxfId="78"/>
+    <tableColumn id="8" xr3:uid="{021192A0-9495-4079-BD7B-926640140172}" name="Feature/Recurso" dataDxfId="77"/>
+    <tableColumn id="10" xr3:uid="{E6649046-9183-4A9C-9211-1AC136EE08A8}" name="Componente " dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{AC88D646-1380-4D59-821E-E0B3E047C825}" name="Pré condição" dataDxfId="75" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{3041137B-8E6B-4144-9142-B0A4CABE2B8E}" name="Teste de Massa" dataDxfId="74" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{0596050A-10FF-4DEB-B184-01E945E70954}" name="Resultado esperado " dataDxfId="73" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{59B5C33D-E3B7-4204-A726-029D5A8105E1}" name="Escolha um Tester" dataDxfId="72" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{7BD55D95-2EDE-457A-B02B-7B7C7BD58AD9}" name="Status" dataDxfId="71" dataCellStyle="Moeda"/>
+    <tableColumn id="14" xr3:uid="{C3B0B323-0BE0-4716-A5E9-1EC44A9D4086}" name="Observação" dataDxfId="70" dataCellStyle="Moeda"/>
+    <tableColumn id="15" xr3:uid="{9988D3F7-ABD1-4391-A434-3D6D76A4FAB9}" name="Log ou Print" dataDxfId="69" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{6C7FC614-0FD8-45C0-847E-2C0F2465A418}" name="Teste realizado em:" dataDxfId="68" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="Fatura" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Lista de faturas com número, descrição, quantidade, preço unitário, desconto e preço do item."/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AA84101F-A0BC-4401-90AE-628567CE5B4B}" name="SimpleInvoice8" displayName="SimpleInvoice8" ref="A8:O20" totalsRowShown="0" headerRowDxfId="152" dataDxfId="151">
+  <autoFilter ref="A8:O20" xr:uid="{AA84101F-A0BC-4401-90AE-628567CE5B4B}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{7DF8A238-28BF-4BA4-A55E-E1F753ECDDDC}" name="Test Case Id" dataDxfId="150"/>
+    <tableColumn id="2" xr3:uid="{759BDF35-C28C-4E22-888E-198A7FE2DBB9}" name="Descrição" dataDxfId="149"/>
+    <tableColumn id="7" xr3:uid="{0C90052C-73A0-429C-A8ED-96F5BC998CFA}" name="Módulo " dataDxfId="148"/>
+    <tableColumn id="5" xr3:uid="{42DD6995-3CCA-4F4A-9679-4C50ED5A9F8A}" name="Tipo de teste" dataDxfId="147"/>
+    <tableColumn id="16" xr3:uid="{215551B3-A076-4421-9E04-997EB7F18C7C}" name="Ação" dataDxfId="146"/>
+    <tableColumn id="8" xr3:uid="{1B0AF86E-4FED-46C0-BD7C-EB7B7FC10BD8}" name="Feature/Recurso" dataDxfId="145"/>
+    <tableColumn id="10" xr3:uid="{66B59A40-392C-4D3C-BFE5-23637DB591F1}" name="Componente " dataDxfId="144"/>
+    <tableColumn id="4" xr3:uid="{10E6A1B1-E7F1-4A9A-A4C5-969E80171D51}" name="Pré condição" dataDxfId="143" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{CA2C74D5-5F88-45EB-B109-EB28DF3A6B2D}" name="Teste de Massa" dataDxfId="142" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{92DD5654-4372-4881-9387-73C549D7355F}" name="Resultado esperado " dataDxfId="141" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{1883C8CF-4F91-4D60-9F70-0EE5305A4F4D}" name="Escolha um Tester" dataDxfId="140" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{BE0BBAE5-619F-4561-8408-2BCF46A54323}" name="Status" dataDxfId="139" dataCellStyle="Moeda"/>
+    <tableColumn id="14" xr3:uid="{B1C1FF0A-A798-44A3-9DD8-8D2EDC164494}" name="Observação" dataDxfId="138" dataCellStyle="Moeda"/>
+    <tableColumn id="15" xr3:uid="{9C910F7A-F8C8-44D5-8355-B6C36C722FB1}" name="Log ou Print" dataDxfId="137" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{4C8CB033-EFFF-4CBB-A341-81979A869C30}" name="Teste realizado em:" dataDxfId="136" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="Fatura" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3076,24 +7334,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{04B3B707-AE09-4B90-AB98-1F9952638153}" name="SimpleInvoice3" displayName="SimpleInvoice3" ref="B23:P35" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{04B3B707-AE09-4B90-AB98-1F9952638153}" name="SimpleInvoice3" displayName="SimpleInvoice3" ref="B23:P35" totalsRowShown="0" headerRowDxfId="203" dataDxfId="202">
   <autoFilter ref="B23:P35" xr:uid="{04B3B707-AE09-4B90-AB98-1F9952638153}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{09E037B2-51ED-41EB-A5F6-B80D4E00964B}" name="Test Case Id" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{2AF77D94-D9B8-4710-8AE0-A0000F45DCD8}" name="Descrição" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{733395F8-02FA-46D5-A9B9-47A04BD1A2FE}" name="Módulo " dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{FF095F53-BD39-4F91-8BAD-7FF78A882C05}" name="Tipo de teste" dataDxfId="45"/>
-    <tableColumn id="16" xr3:uid="{E775437C-E874-4B7D-86DD-FC7D6C6B1AD9}" name="Ação" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{E1B4CA12-7775-4ECD-89DA-B6ACB373CEBE}" name="Feature/Recurso" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{6A4BCB5B-C93D-4934-A1BC-E8BD46A26A68}" name="Componente " dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{F3E9C7AF-C0DD-4E9D-BA6C-0ACB66AA2ED8}" name="Pré condição" dataDxfId="41" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{65D21BB2-9C3C-472C-8560-81AD0021B6CC}" name="Teste de Massa" dataDxfId="40" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{ED03BF91-2B4C-480B-A46A-D13448580F89}" name="Resultado esperado " dataDxfId="39" dataCellStyle="Moeda"/>
-    <tableColumn id="13" xr3:uid="{CBC09B6E-A7C3-4E6A-9C3F-6380A8718FE4}" name="Escolha um Tester" dataDxfId="38" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{ABA14DB3-3FDE-4108-93B6-626F63569CEE}" name="Status" dataDxfId="37" dataCellStyle="Moeda"/>
-    <tableColumn id="14" xr3:uid="{D2041988-F68D-477E-BF36-16982AEF2220}" name="Observação" dataDxfId="36" dataCellStyle="Moeda"/>
-    <tableColumn id="15" xr3:uid="{347B51D5-B04B-4F75-B394-52FAD9D90FDE}" name="Log ou Print" dataDxfId="35" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{39C4D759-C60D-4591-A831-CF631E6E3227}" name="Teste realizado em:" dataDxfId="34" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{09E037B2-51ED-41EB-A5F6-B80D4E00964B}" name="Test Case Id" dataDxfId="201"/>
+    <tableColumn id="2" xr3:uid="{2AF77D94-D9B8-4710-8AE0-A0000F45DCD8}" name="Descrição" dataDxfId="200"/>
+    <tableColumn id="7" xr3:uid="{733395F8-02FA-46D5-A9B9-47A04BD1A2FE}" name="Módulo " dataDxfId="199"/>
+    <tableColumn id="5" xr3:uid="{FF095F53-BD39-4F91-8BAD-7FF78A882C05}" name="Tipo de teste" dataDxfId="198"/>
+    <tableColumn id="16" xr3:uid="{E775437C-E874-4B7D-86DD-FC7D6C6B1AD9}" name="Ação" dataDxfId="197"/>
+    <tableColumn id="8" xr3:uid="{E1B4CA12-7775-4ECD-89DA-B6ACB373CEBE}" name="Feature/Recurso" dataDxfId="196"/>
+    <tableColumn id="10" xr3:uid="{6A4BCB5B-C93D-4934-A1BC-E8BD46A26A68}" name="Componente " dataDxfId="195"/>
+    <tableColumn id="4" xr3:uid="{F3E9C7AF-C0DD-4E9D-BA6C-0ACB66AA2ED8}" name="Pré condição" dataDxfId="194" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{65D21BB2-9C3C-472C-8560-81AD0021B6CC}" name="Teste de Massa" dataDxfId="193" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{ED03BF91-2B4C-480B-A46A-D13448580F89}" name="Resultado esperado " dataDxfId="192" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{CBC09B6E-A7C3-4E6A-9C3F-6380A8718FE4}" name="Escolha um Tester" dataDxfId="191" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{ABA14DB3-3FDE-4108-93B6-626F63569CEE}" name="Status" dataDxfId="190" dataCellStyle="Moeda"/>
+    <tableColumn id="14" xr3:uid="{D2041988-F68D-477E-BF36-16982AEF2220}" name="Observação" dataDxfId="189" dataCellStyle="Moeda"/>
+    <tableColumn id="15" xr3:uid="{347B51D5-B04B-4F75-B394-52FAD9D90FDE}" name="Log ou Print" dataDxfId="188" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{39C4D759-C60D-4591-A831-CF631E6E3227}" name="Teste realizado em:" dataDxfId="187" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="Fatura" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3105,24 +7363,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DBAC0804-AF13-4EE3-9245-560DA93E936C}" name="SimpleInvoice4" displayName="SimpleInvoice4" ref="B38:P50" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DBAC0804-AF13-4EE3-9245-560DA93E936C}" name="SimpleInvoice4" displayName="SimpleInvoice4" ref="B38:P50" totalsRowShown="0" headerRowDxfId="186" dataDxfId="185">
   <autoFilter ref="B38:P50" xr:uid="{DBAC0804-AF13-4EE3-9245-560DA93E936C}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{562F0AE7-A48A-41EF-8BC5-1529D5F9194A}" name="Test Case Id" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{60CCCF31-F4A5-4C50-93D1-B90409CF0303}" name="Descrição" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{5E1902B9-3721-4165-B4F1-38F392591849}" name="Módulo " dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{D34AFD24-C860-48AC-A608-CFEF6B7CD2BE}" name="Tipo de teste" dataDxfId="28"/>
-    <tableColumn id="16" xr3:uid="{B10AA081-C833-4246-A401-8868D813A274}" name="Ação" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{D0E756D9-B40B-46CD-813D-4023D2A9EEFD}" name="Feature/Recurso" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{3F3719B0-7B8F-4522-BE65-914F508E5009}" name="Componente " dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{61AAB105-CD89-4CEF-88E4-89E12A07DA47}" name="Pré condição" dataDxfId="24" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{26EF9B57-06E7-4CAE-A0D6-64AD3894F7FB}" name="Teste de Massa" dataDxfId="23" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{1508B4D5-7286-46DC-990B-C90C4450AA3F}" name="Resultado esperado " dataDxfId="22" dataCellStyle="Moeda"/>
-    <tableColumn id="13" xr3:uid="{4A5E00B1-D506-45E0-99E8-B13B673A4707}" name="Escolha um Tester" dataDxfId="21" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{90B62D6C-ED4D-4E7F-8BD8-CE9CF75E8A64}" name="Status" dataDxfId="20" dataCellStyle="Moeda"/>
-    <tableColumn id="14" xr3:uid="{D5B5AE65-BF20-4FDE-80F7-64A9CD0BD7D4}" name="Observação" dataDxfId="19" dataCellStyle="Moeda"/>
-    <tableColumn id="15" xr3:uid="{DAE06D88-140F-43C3-AEA4-FE0B64BCB78A}" name="Log ou Print" dataDxfId="18" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{A357B449-95E9-4D27-821B-38ECC2AC61F6}" name="Teste realizado em:" dataDxfId="17" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{562F0AE7-A48A-41EF-8BC5-1529D5F9194A}" name="Test Case Id" dataDxfId="184"/>
+    <tableColumn id="2" xr3:uid="{60CCCF31-F4A5-4C50-93D1-B90409CF0303}" name="Descrição" dataDxfId="183"/>
+    <tableColumn id="7" xr3:uid="{5E1902B9-3721-4165-B4F1-38F392591849}" name="Módulo " dataDxfId="182"/>
+    <tableColumn id="5" xr3:uid="{D34AFD24-C860-48AC-A608-CFEF6B7CD2BE}" name="Tipo de teste" dataDxfId="181"/>
+    <tableColumn id="16" xr3:uid="{B10AA081-C833-4246-A401-8868D813A274}" name="Ação" dataDxfId="180"/>
+    <tableColumn id="8" xr3:uid="{D0E756D9-B40B-46CD-813D-4023D2A9EEFD}" name="Feature/Recurso" dataDxfId="179"/>
+    <tableColumn id="10" xr3:uid="{3F3719B0-7B8F-4522-BE65-914F508E5009}" name="Componente " dataDxfId="178"/>
+    <tableColumn id="4" xr3:uid="{61AAB105-CD89-4CEF-88E4-89E12A07DA47}" name="Pré condição" dataDxfId="177" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{26EF9B57-06E7-4CAE-A0D6-64AD3894F7FB}" name="Teste de Massa" dataDxfId="176" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{1508B4D5-7286-46DC-990B-C90C4450AA3F}" name="Resultado esperado " dataDxfId="175" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{4A5E00B1-D506-45E0-99E8-B13B673A4707}" name="Escolha um Tester" dataDxfId="174" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{90B62D6C-ED4D-4E7F-8BD8-CE9CF75E8A64}" name="Status" dataDxfId="173" dataCellStyle="Moeda"/>
+    <tableColumn id="14" xr3:uid="{D5B5AE65-BF20-4FDE-80F7-64A9CD0BD7D4}" name="Observação" dataDxfId="172" dataCellStyle="Moeda"/>
+    <tableColumn id="15" xr3:uid="{DAE06D88-140F-43C3-AEA4-FE0B64BCB78A}" name="Log ou Print" dataDxfId="171" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{A357B449-95E9-4D27-821B-38ECC2AC61F6}" name="Teste realizado em:" dataDxfId="170" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="Fatura" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3134,24 +7392,201 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{80202A6E-6C35-465C-85B3-085E41DBD493}" name="SimpleInvoice6" displayName="SimpleInvoice6" ref="B53:P65" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{80202A6E-6C35-465C-85B3-085E41DBD493}" name="SimpleInvoice6" displayName="SimpleInvoice6" ref="B53:P65" totalsRowShown="0" headerRowDxfId="169" dataDxfId="168">
   <autoFilter ref="B53:P65" xr:uid="{80202A6E-6C35-465C-85B3-085E41DBD493}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{C075881D-905B-4312-BBC7-71E74A0CE7EC}" name="Test Case Id" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{06803C1F-F88F-4CE6-ACFB-7DE9EE799B7A}" name="Descrição" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{82A36CBA-A8F6-4ED2-AFA5-CA3B8874F554}" name="Módulo " dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{16F85A6B-C64E-488B-8A54-DB7FAB894DD4}" name="Tipo de teste" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{1312C3BA-C06E-4622-9837-3AB32441C419}" name="Ação" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{177EBF04-F8EF-4A8A-9B18-0AB4992E5774}" name="Feature/Recurso" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{B5BC52CE-439A-4059-8AD8-28B0B4F95EF1}" name="Componente " dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{B7366245-66AF-48C8-A0E4-77488BFA0866}" name="Pré condição" dataDxfId="7" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{DA1F8942-1F7C-41EA-B60D-96A2C8D7BBC6}" name="Teste de Massa" dataDxfId="6" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{0C6CE9CF-E303-40A2-BD6D-81B6BBC91B2F}" name="Resultado esperado " dataDxfId="5" dataCellStyle="Moeda"/>
-    <tableColumn id="13" xr3:uid="{716BF0CC-6DCA-4A4A-B9D7-7D9D43501D3E}" name="Escolha um Tester" dataDxfId="4" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{23CF9D1E-57EE-46B8-A3BD-484C4AA6F082}" name="Status" dataDxfId="3" dataCellStyle="Moeda"/>
-    <tableColumn id="14" xr3:uid="{B3B67D21-4A01-49B1-87C7-50DCC4C822A9}" name="Observação" dataDxfId="2" dataCellStyle="Moeda"/>
-    <tableColumn id="15" xr3:uid="{6351294D-BE4E-4615-BFD4-814611013BD6}" name="Log ou Print" dataDxfId="1" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{7B205291-D3B5-4DDA-9951-1E5A7B98EAE3}" name="Teste realizado em:" dataDxfId="0" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C075881D-905B-4312-BBC7-71E74A0CE7EC}" name="Test Case Id" dataDxfId="167"/>
+    <tableColumn id="2" xr3:uid="{06803C1F-F88F-4CE6-ACFB-7DE9EE799B7A}" name="Descrição" dataDxfId="166"/>
+    <tableColumn id="7" xr3:uid="{82A36CBA-A8F6-4ED2-AFA5-CA3B8874F554}" name="Módulo " dataDxfId="165"/>
+    <tableColumn id="5" xr3:uid="{16F85A6B-C64E-488B-8A54-DB7FAB894DD4}" name="Tipo de teste" dataDxfId="164"/>
+    <tableColumn id="16" xr3:uid="{1312C3BA-C06E-4622-9837-3AB32441C419}" name="Ação" dataDxfId="163"/>
+    <tableColumn id="8" xr3:uid="{177EBF04-F8EF-4A8A-9B18-0AB4992E5774}" name="Feature/Recurso" dataDxfId="162"/>
+    <tableColumn id="10" xr3:uid="{B5BC52CE-439A-4059-8AD8-28B0B4F95EF1}" name="Componente " dataDxfId="161"/>
+    <tableColumn id="4" xr3:uid="{B7366245-66AF-48C8-A0E4-77488BFA0866}" name="Pré condição" dataDxfId="160" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{DA1F8942-1F7C-41EA-B60D-96A2C8D7BBC6}" name="Teste de Massa" dataDxfId="159" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{0C6CE9CF-E303-40A2-BD6D-81B6BBC91B2F}" name="Resultado esperado " dataDxfId="158" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{716BF0CC-6DCA-4A4A-B9D7-7D9D43501D3E}" name="Escolha um Tester" dataDxfId="157" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{23CF9D1E-57EE-46B8-A3BD-484C4AA6F082}" name="Status" dataDxfId="156" dataCellStyle="Moeda"/>
+    <tableColumn id="14" xr3:uid="{B3B67D21-4A01-49B1-87C7-50DCC4C822A9}" name="Observação" dataDxfId="155" dataCellStyle="Moeda"/>
+    <tableColumn id="15" xr3:uid="{6351294D-BE4E-4615-BFD4-814611013BD6}" name="Log ou Print" dataDxfId="154" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{7B205291-D3B5-4DDA-9951-1E5A7B98EAE3}" name="Teste realizado em:" dataDxfId="153" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="Fatura" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Lista de faturas com número, descrição, quantidade, preço unitário, desconto e preço do item."/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{8523AB07-73FA-4FE0-98AE-9EA147736B4A}" name="SimpleInvoice17" displayName="SimpleInvoice17" ref="B8:P20" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+  <autoFilter ref="B8:P20" xr:uid="{00000000-0009-0000-0100-000004000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{A7132367-0097-4473-BF85-17262E9D58CE}" name="Test Case Id" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{C2B2CEB8-28FA-4AA7-B303-0D7F3C00BFA7}" name="Descrição" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{99AFC609-7F78-44DF-A03E-2F971207E79A}" name="Módulo " dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{8963288D-C349-4AFC-B5DB-DF8CC39CE6EC}" name="Tipo de teste" dataDxfId="62"/>
+    <tableColumn id="16" xr3:uid="{5A39B494-7E93-4C59-9A6C-049AA802BB54}" name="Ação" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{27864FE0-51F9-48AA-9F05-B1C6BD15BD97}" name="Feature/Recurso" dataDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{128FE2BE-2BC7-4203-8CDA-8C745F7847EE}" name="Componente " dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{77176937-00D7-4085-8167-6B1770B51514}" name="Pré condição" dataDxfId="58" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{111BA56E-1B03-4B21-8A52-C24B64576134}" name="Teste de Massa" dataDxfId="57" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{5ACCF991-9F5D-42B2-AF2B-EBFC35D9A854}" name="Resultado esperado " dataDxfId="56" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{9806992B-DAD3-4C09-8918-FC547C5303C6}" name="Escolha um Tester" dataDxfId="55" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{462AADF6-9115-4E5B-AC59-9C93FD81630C}" name="Status" dataDxfId="54" dataCellStyle="Moeda"/>
+    <tableColumn id="14" xr3:uid="{899BAFCF-585F-4B83-A410-E1F12037CC8B}" name="Observação" dataDxfId="53" dataCellStyle="Moeda"/>
+    <tableColumn id="15" xr3:uid="{988D5C5A-C9CD-4AF0-A72B-F577C5396BD1}" name="Log ou Print" dataDxfId="52" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{8F125DB4-5956-4D9E-A980-67CF891E46C1}" name="Teste realizado em:" dataDxfId="51" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="Fatura" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Lista de faturas com número, descrição, quantidade, preço unitário, desconto e preço do item."/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F8588723-0967-4FB1-8077-2021E7E0028A}" name="SimpleInvoice318" displayName="SimpleInvoice318" ref="B23:P35" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="B23:P35" xr:uid="{04B3B707-AE09-4B90-AB98-1F9952638153}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{75BD636F-2B7C-46E8-84F7-7E02F77BB0B1}" name="Test Case Id" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{9F4213E3-AD0C-4DB7-B276-64C07304DCCC}" name="Descrição" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{C1C5248C-D534-4A2B-8953-26A40BE1C3A2}" name="Módulo " dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{E74283AA-FA92-48D5-AD8C-13A2EB19F9B6}" name="Tipo de teste" dataDxfId="45"/>
+    <tableColumn id="16" xr3:uid="{2591951D-ADC8-4C14-8958-63B4D44A408A}" name="Ação" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{47A8ABA0-9609-4DEC-B171-D03B6BC85563}" name="Feature/Recurso" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{17E04AD1-5F1C-48E4-A35D-D991480DD2CD}" name="Componente " dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{B68A51AA-C69A-4B5F-8AEE-78DC55E8B83E}" name="Pré condição" dataDxfId="41" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{77DF5B37-513C-4E68-976B-1F58E8FCB8F7}" name="Teste de Massa" dataDxfId="40" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{11FAE39E-5763-402B-899E-338AA96603D2}" name="Resultado esperado " dataDxfId="39" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{276BD378-8EAE-431F-859B-872182284B41}" name="Escolha um Tester" dataDxfId="38" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{6B7E1400-A0D2-480D-A4A8-7C31F825D197}" name="Status" dataDxfId="37" dataCellStyle="Moeda"/>
+    <tableColumn id="14" xr3:uid="{72974FCB-AC2E-4E89-8645-48D91CA5AE9C}" name="Observação" dataDxfId="36" dataCellStyle="Moeda"/>
+    <tableColumn id="15" xr3:uid="{481BE504-418A-4B56-8D87-868B4CC7B634}" name="Log ou Print" dataDxfId="35" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{BB7E33E8-7025-4521-B99A-6D315AB9855F}" name="Teste realizado em:" dataDxfId="34" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="Fatura" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Lista de faturas com número, descrição, quantidade, preço unitário, desconto e preço do item."/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{CD251D7F-BC3D-4450-89CF-B19770186014}" name="SimpleInvoice419" displayName="SimpleInvoice419" ref="B38:P50" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="B38:P50" xr:uid="{DBAC0804-AF13-4EE3-9245-560DA93E936C}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{CBAA58EF-3177-41AC-987E-086F7FF6406C}" name="Test Case Id" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{EF86675E-F45E-4356-A326-70C7DD22B392}" name="Descrição" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{84A06A96-06FE-4A57-9C31-3C544FF96F50}" name="Módulo " dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{50467A9B-6528-4274-915D-03268A8A88F0}" name="Tipo de teste" dataDxfId="28"/>
+    <tableColumn id="16" xr3:uid="{679D2DDD-68B2-4978-9A9A-D20F670DEB78}" name="Ação" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{B3A439B4-54FA-4C96-9BCD-30E16CFDB661}" name="Feature/Recurso" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{A7A6D9C8-76D3-4560-8A00-A1786A258326}" name="Componente " dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{B6A8110B-70F7-489B-8ED8-BCF332A6B5D7}" name="Pré condição" dataDxfId="24" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{A0324722-AACB-4C08-A1C9-42A0DF9367B1}" name="Teste de Massa" dataDxfId="23" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{CE425B52-1CAB-4AAB-8909-F4C05EF8C79E}" name="Resultado esperado " dataDxfId="22" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{30D6BE42-8373-4EB6-9710-C46690DD2769}" name="Escolha um Tester" dataDxfId="21" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{E8E36A7C-327B-4E4E-BE64-1F303674398A}" name="Status" dataDxfId="20" dataCellStyle="Moeda"/>
+    <tableColumn id="14" xr3:uid="{96CDA7D2-CB89-4956-A962-135B15695F99}" name="Observação" dataDxfId="19" dataCellStyle="Moeda"/>
+    <tableColumn id="15" xr3:uid="{92C9F582-BF19-4AFB-9C7C-C22F6089F598}" name="Log ou Print" dataDxfId="18" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{B173B983-8D97-4617-B931-4200F08F9E91}" name="Teste realizado em:" dataDxfId="17" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="Fatura" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Lista de faturas com número, descrição, quantidade, preço unitário, desconto e preço do item."/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{F9306A77-6202-49AF-BE0A-AD612A125002}" name="SimpleInvoice620" displayName="SimpleInvoice620" ref="B53:P65" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="B53:P65" xr:uid="{80202A6E-6C35-465C-85B3-085E41DBD493}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{59FDD124-7973-4E8D-ADBF-7FF63B4F239B}" name="Test Case Id" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{672D89E0-C0FB-40DE-B465-8FC1A9DD5379}" name="Descrição" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{D1802DCF-96BE-42CD-B2F0-1BC6042DB938}" name="Módulo " dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{AEDF296F-606F-4EAF-B769-9542684DB8D2}" name="Tipo de teste" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{3DAD5E69-B85B-4F18-A9FA-23A1F4FD9E24}" name="Ação" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{AA7F0D2F-2245-4E34-A849-369BB73E6AF9}" name="Feature/Recurso" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{15C4C24F-3EF6-4927-9CCE-B5A853CE1C34}" name="Componente " dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{E6CD21FB-A74A-4378-B673-D7526A19558C}" name="Pré condição" dataDxfId="7" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{31658432-781B-4087-9F0B-C3B5E80D1CB4}" name="Teste de Massa" dataDxfId="6" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{1D405790-C9B9-421F-9DEE-CE57F53DD655}" name="Resultado esperado " dataDxfId="5" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{9E730C89-5FD8-493B-A603-E9E4F1BF1FCB}" name="Escolha um Tester" dataDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{AF64D226-E407-4990-A132-0AFFC942854C}" name="Status" dataDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="14" xr3:uid="{6CE03660-FC04-4075-97FF-B0B718D5D40E}" name="Observação" dataDxfId="2" dataCellStyle="Moeda"/>
+    <tableColumn id="15" xr3:uid="{84C2867A-861C-4E68-A505-183781057DF6}" name="Log ou Print" dataDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{E6C6348D-A9C1-4F5F-B72D-02E3DA2E0F0F}" name="Teste realizado em:" dataDxfId="0" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="Fatura" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Lista de faturas com número, descrição, quantidade, preço unitário, desconto e preço do item."/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{6F61CEE9-6ACD-4809-9715-B2FF016BC18A}" name="SimpleInvoice13" displayName="SimpleInvoice13" ref="B8:P20" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
+  <autoFilter ref="B8:P20" xr:uid="{00000000-0009-0000-0100-000004000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{039D7B4A-7576-483D-8D99-79B6A2BC443C}" name="Test Case Id" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{26A671C1-6842-4CE0-BFBF-8D4A1FC4C0E5}" name="Descrição" dataDxfId="132"/>
+    <tableColumn id="7" xr3:uid="{025B8C1E-1D2B-4C8C-BB50-EFBF1FBE4623}" name="Módulo " dataDxfId="131"/>
+    <tableColumn id="5" xr3:uid="{54CC68C2-426C-4D62-AADE-34A55B6E5990}" name="Tipo de teste" dataDxfId="130"/>
+    <tableColumn id="16" xr3:uid="{6F0BCFFE-1E46-4703-A8DF-40904BF71AE3}" name="Ação" dataDxfId="129"/>
+    <tableColumn id="8" xr3:uid="{0E10EEB4-D179-4588-B1D5-1FA880E52A15}" name="Feature/Recurso" dataDxfId="128"/>
+    <tableColumn id="10" xr3:uid="{3D00E939-9B8E-4A2B-A1EC-60D72A013CB4}" name="Componente " dataDxfId="127"/>
+    <tableColumn id="4" xr3:uid="{9FF44052-6F37-4B76-AE4E-4D671158775A}" name="Pré condição" dataDxfId="126" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{2E8BEAD9-B59C-45DA-8210-8180EF85305E}" name="Teste de Massa" dataDxfId="125" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{53301DC7-9BB4-4F8A-ACD0-0B6B8AC37DF0}" name="Resultado esperado " dataDxfId="124" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{D57DCEE8-05BC-4DC7-A3B2-25368981A6DD}" name="Escolha um Tester" dataDxfId="123" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{D3D00041-F4ED-4243-9750-D56DFB35CCC4}" name="Status" dataDxfId="122" dataCellStyle="Moeda"/>
+    <tableColumn id="14" xr3:uid="{2138446C-A63E-4F02-8479-F374BA06B489}" name="Observação" dataDxfId="121" dataCellStyle="Moeda"/>
+    <tableColumn id="15" xr3:uid="{8E781E2F-68E4-4F40-B6C2-1F721F636621}" name="Log ou Print" dataDxfId="120" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{44EC9B72-BFE7-446F-B3DC-B0E8DC325BE9}" name="Teste realizado em:" dataDxfId="119" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="Fatura" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3395,8 +7830,8 @@
   </sheetPr>
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3412,17 +7847,17 @@
   <sheetData>
     <row r="1" spans="1:16" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="32"/>
+      <c r="C1" s="41"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="E1" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
@@ -3433,15 +7868,15 @@
       <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
@@ -3456,15 +7891,15 @@
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
@@ -3482,10 +7917,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -3496,12 +7931,12 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="39"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -3512,12 +7947,12 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -3529,7 +7964,7 @@
     </row>
     <row r="7" spans="1:16" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="6"/>
@@ -3556,7 +7991,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>18</v>
@@ -3577,7 +8012,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>14</v>
@@ -3594,43 +8029,43 @@
     </row>
     <row r="9" spans="1:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="E9" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="H9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="J9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>27</v>
-      </c>
       <c r="K9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="M9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="N9" s="23" t="s">
         <v>31</v>
-      </c>
-      <c r="N9" s="23" t="s">
-        <v>32</v>
       </c>
       <c r="O9" s="23"/>
       <c r="P9" s="26">
@@ -3639,41 +8074,41 @@
     </row>
     <row r="10" spans="1:16" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="31" t="s">
+      <c r="J10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="K10" s="24" t="s">
         <v>40</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>41</v>
       </c>
       <c r="L10" s="24"/>
       <c r="M10" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="23" t="s">
         <v>31</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>32</v>
       </c>
       <c r="O10" s="24"/>
       <c r="P10" s="26">
@@ -3682,41 +8117,41 @@
     </row>
     <row r="11" spans="1:16" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="21" t="s">
+      <c r="K11" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>45</v>
       </c>
       <c r="L11" s="24"/>
       <c r="M11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="23" t="s">
         <v>31</v>
-      </c>
-      <c r="N11" s="23" t="s">
-        <v>32</v>
       </c>
       <c r="O11" s="24"/>
       <c r="P11" s="26">
@@ -3725,41 +8160,41 @@
     </row>
     <row r="12" spans="1:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="D12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="24" t="s">
+      <c r="K12" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>50</v>
       </c>
       <c r="L12" s="24"/>
       <c r="M12" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>52</v>
       </c>
       <c r="O12" s="24"/>
       <c r="P12" s="26">
@@ -3768,41 +8203,41 @@
     </row>
     <row r="13" spans="1:16" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="D13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="21" t="s">
+      <c r="K13" s="24" t="s">
         <v>55</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>56</v>
       </c>
       <c r="L13" s="24"/>
       <c r="M13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="23" t="s">
         <v>31</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>32</v>
       </c>
       <c r="O13" s="24"/>
       <c r="P13" s="26">
@@ -3811,31 +8246,31 @@
     </row>
     <row r="14" spans="1:16" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="D14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="31" t="s">
+      <c r="J14" s="36" t="s">
         <v>62</v>
-      </c>
-      <c r="J14" s="41" t="s">
-        <v>63</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
@@ -3954,7 +8389,7 @@
     </row>
     <row r="22" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="6"/>
@@ -3981,7 +8416,7 @@
         <v>9</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>18</v>
@@ -4002,7 +8437,7 @@
         <v>13</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M23" s="18" t="s">
         <v>14</v>
@@ -4019,43 +8454,43 @@
     </row>
     <row r="24" spans="2:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="D24" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="E24" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="20" t="s">
+      <c r="G24" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="H24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="J24" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>27</v>
-      </c>
       <c r="K24" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="M24" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="N24" s="23" t="s">
         <v>31</v>
-      </c>
-      <c r="N24" s="23" t="s">
-        <v>32</v>
       </c>
       <c r="O24" s="23"/>
       <c r="P24" s="26">
@@ -4251,7 +8686,7 @@
     </row>
     <row r="37" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="6"/>
@@ -4278,7 +8713,7 @@
         <v>9</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>18</v>
@@ -4299,7 +8734,7 @@
         <v>13</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M38" s="18" t="s">
         <v>14</v>
@@ -4316,43 +8751,43 @@
     </row>
     <row r="39" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="D39" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="E39" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="20" t="s">
+      <c r="G39" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="H39" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="J39" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I39" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J39" s="21" t="s">
-        <v>27</v>
-      </c>
       <c r="K39" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L39" s="23" t="s">
+      <c r="M39" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="M39" s="23" t="s">
+      <c r="N39" s="23" t="s">
         <v>31</v>
-      </c>
-      <c r="N39" s="23" t="s">
-        <v>32</v>
       </c>
       <c r="O39" s="23"/>
       <c r="P39" s="26">
@@ -4548,7 +8983,7 @@
     </row>
     <row r="52" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="6"/>
@@ -4575,7 +9010,7 @@
         <v>9</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>18</v>
@@ -4596,7 +9031,7 @@
         <v>13</v>
       </c>
       <c r="L53" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M53" s="18" t="s">
         <v>14</v>
@@ -4613,43 +9048,43 @@
     </row>
     <row r="54" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="D54" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="E54" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F54" s="20" t="s">
+      <c r="G54" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="H54" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H54" s="22" t="s">
+      <c r="J54" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I54" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J54" s="21" t="s">
-        <v>27</v>
-      </c>
       <c r="K54" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L54" s="23" t="s">
+      <c r="M54" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="M54" s="23" t="s">
+      <c r="N54" s="23" t="s">
         <v>31</v>
-      </c>
-      <c r="N54" s="23" t="s">
-        <v>32</v>
       </c>
       <c r="O54" s="23"/>
       <c r="P54" s="26">
@@ -4898,4 +9333,3759 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08742A0E-95B2-4A30-95FA-ECF21F028019}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.499984740745262"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P65"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="15" width="28.7109375" customWidth="1"/>
+    <col min="16" max="16" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+    </row>
+    <row r="2" spans="1:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+    </row>
+    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="40"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="40"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="23"/>
+      <c r="P9" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="24"/>
+      <c r="P10" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="24"/>
+      <c r="P11" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="24"/>
+      <c r="P12" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="24"/>
+      <c r="P13" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+    </row>
+    <row r="15" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+    </row>
+    <row r="16" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+    </row>
+    <row r="17" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+    </row>
+    <row r="18" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+    </row>
+    <row r="19" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+    </row>
+    <row r="20" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+    </row>
+    <row r="21" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="23"/>
+      <c r="P24" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+    </row>
+    <row r="26" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+    </row>
+    <row r="27" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+    </row>
+    <row r="28" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+    </row>
+    <row r="29" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+    </row>
+    <row r="30" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+    </row>
+    <row r="31" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+    </row>
+    <row r="32" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+    </row>
+    <row r="33" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+    </row>
+    <row r="34" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+    </row>
+    <row r="35" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+    </row>
+    <row r="37" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O38" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39" s="23"/>
+      <c r="P39" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+    </row>
+    <row r="41" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+    </row>
+    <row r="42" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+    </row>
+    <row r="43" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+    </row>
+    <row r="44" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+    </row>
+    <row r="45" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+    </row>
+    <row r="46" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+    </row>
+    <row r="47" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+    </row>
+    <row r="48" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+    </row>
+    <row r="49" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+    </row>
+    <row r="50" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+    </row>
+    <row r="52" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N53" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O53" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P53" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K54" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N54" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O54" s="23"/>
+      <c r="P54" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+    </row>
+    <row r="56" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+    </row>
+    <row r="57" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+    </row>
+    <row r="58" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+    </row>
+    <row r="59" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+    </row>
+    <row r="60" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+    </row>
+    <row r="61" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+    </row>
+    <row r="62" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+    </row>
+    <row r="63" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+    </row>
+    <row r="64" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+    </row>
+    <row r="65" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1" sort="0"/>
+  <mergeCells count="9">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+  </mergeCells>
+  <dataValidations count="21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:E65 E24:E35 E39:E50 E9:E20" xr:uid="{1D5E7CA6-1C27-4C99-8030-660622771994}">
+      <formula1>"Conteúdo,Bando de dados,Interface,Usabilidade,Compatibilidade,Componentes,Navegação,Configuração,Segurança,Performance,Cargas,Stress"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L20 L24:L35 L39:L50 L54:L65" xr:uid="{E92D128B-0239-4C30-A427-96B61EFC531A}">
+      <formula1>"Caio,Vinicius,João,Luis,Lucas G,Lucas F"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o endereço de email da empresa nesta célula." sqref="H2:P2" xr:uid="{78B76993-6918-4B02-96D1-579F2A276BDF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o site da empresa nesta célula." sqref="H3:O3" xr:uid="{21C990E4-966C-473A-B29D-E015564FFBDC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número da fatura na célula à direita." sqref="H4:O4" xr:uid="{708F830B-A432-411A-8A13-0F46B6E73D7C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a data da fatura na célula à direita." sqref="H5:O5" xr:uid="{D203D94F-1A49-48D0-BCBC-AD9B08001FD8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Modifique o nome da empresa nesta célula. Insira o endereço, o telefone, o fax, o email e o site da empresa nas células B2 a G3. Insira os detalhes de cobrança nas células B4 a G7." sqref="B1:C1" xr:uid="{347016F7-2578-499F-A3DD-84CFC1DC6ECA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o destino da fatura nesta célula." sqref="C7 C22 C37 C52" xr:uid="{08333BB6-A311-44F0-ABED-3CD05C80FDB2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o destino da fatura na célula à direita." sqref="B7 B22 B37 B52" xr:uid="{36E826B8-D98D-467C-AC0D-93BC016A8965}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a origem da cobrança nesta célula." sqref="C4" xr:uid="{31918D80-1F13-4628-AF35-568B229CCAF1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número do fax da empresa nesta célula." sqref="D3:G3" xr:uid="{99BC5FF9-770A-428D-9DC0-9734DA68DE15}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número de telefone da empresa nesta célula." sqref="D2:G2" xr:uid="{0F0ACF15-3364-4694-AE83-9E60A461F1E6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o endereço de email nesta célula." sqref="D6:G6" xr:uid="{D0396E73-8DDD-478A-BCDB-40681B8485C7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o endereço da empresa nesta célula." sqref="B2:C2" xr:uid="{12BC2904-F342-42A2-85BF-919441AC5F30}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Crie uma fatura simples nesta planilha." sqref="A1" xr:uid="{A6ACD34E-56C6-48B2-9DC6-11FE026FE9FB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a cidade, o estado e o CEP da empresa nesta célula." sqref="B3:C3" xr:uid="{A31F64B9-2455-4FA7-8170-E968E669BAC5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número de telefone nesta célula." sqref="D4:G4" xr:uid="{8E244454-76E8-4416-87E2-B9D3632C3E4A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número de fax nesta célula." sqref="D5:G5" xr:uid="{244542AF-C6BD-4986-8782-2EE415A39465}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a origem da cobrança na célula à direita." sqref="B4" xr:uid="{7C09B1C6-9447-4AF1-931E-ACAA920F3498}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o endereço de cobrança na célula à direita." sqref="B5" xr:uid="{7D6756E6-589B-48E8-BDD7-27EF0148ED3F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o endereço de cobrança nesta célula." sqref="C5" xr:uid="{7094C060-E09A-44E8-B9D4-DE687BAF0F03}"/>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="1" bottom="1" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter differentFirst="1" alignWithMargins="0">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <tableParts count="4">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBE8F38-ACDB-4412-9310-FB1F27349901}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.499984740745262"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P65"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="15" width="28.7109375" customWidth="1"/>
+    <col min="16" max="16" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+    </row>
+    <row r="2" spans="1:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+    </row>
+    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="40"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="40"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="23"/>
+      <c r="P9" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="24"/>
+      <c r="P10" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="24"/>
+      <c r="P11" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="24"/>
+      <c r="P12" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="24"/>
+      <c r="P13" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+    </row>
+    <row r="15" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+    </row>
+    <row r="16" spans="1:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+    </row>
+    <row r="17" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+    </row>
+    <row r="18" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+    </row>
+    <row r="19" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+    </row>
+    <row r="20" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+    </row>
+    <row r="21" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="23"/>
+      <c r="P24" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+    </row>
+    <row r="26" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+    </row>
+    <row r="27" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+    </row>
+    <row r="28" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+    </row>
+    <row r="29" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+    </row>
+    <row r="30" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+    </row>
+    <row r="31" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+    </row>
+    <row r="32" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+    </row>
+    <row r="33" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+    </row>
+    <row r="34" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+    </row>
+    <row r="35" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+    </row>
+    <row r="37" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O38" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39" s="23"/>
+      <c r="P39" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+    </row>
+    <row r="41" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+    </row>
+    <row r="42" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+    </row>
+    <row r="43" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+    </row>
+    <row r="44" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+    </row>
+    <row r="45" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+    </row>
+    <row r="46" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+    </row>
+    <row r="47" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+    </row>
+    <row r="48" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+    </row>
+    <row r="49" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+    </row>
+    <row r="50" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+    </row>
+    <row r="52" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N53" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O53" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P53" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K54" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N54" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O54" s="23"/>
+      <c r="P54" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+    </row>
+    <row r="56" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+    </row>
+    <row r="57" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+    </row>
+    <row r="58" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+    </row>
+    <row r="59" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+    </row>
+    <row r="60" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+    </row>
+    <row r="61" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+    </row>
+    <row r="62" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+    </row>
+    <row r="63" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+    </row>
+    <row r="64" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+    </row>
+    <row r="65" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1" sort="0"/>
+  <mergeCells count="9">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+  </mergeCells>
+  <dataValidations count="21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:E65 E24:E35 E39:E50 E9:E20" xr:uid="{50BC8DED-01C9-40FB-BF9D-708AD2A15A7C}">
+      <formula1>"Conteúdo,Bando de dados,Interface,Usabilidade,Compatibilidade,Componentes,Navegação,Configuração,Segurança,Performance,Cargas,Stress"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L20 L24:L35 L39:L50 L54:L65" xr:uid="{3314B4EA-0E48-4CEA-88F2-31527DE9C0C6}">
+      <formula1>"Caio,Vinicius,João,Luis,Lucas G,Lucas F"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o endereço de email da empresa nesta célula." sqref="H2:P2" xr:uid="{3F9F2976-8B1F-4645-B1FE-62F7E27D8F20}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o site da empresa nesta célula." sqref="H3:O3" xr:uid="{D1A36EAD-ABBB-4B89-8CB5-514ED711CD35}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número da fatura na célula à direita." sqref="H4:O4" xr:uid="{ABB4D819-95A4-43A7-8C81-D770B71D099B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a data da fatura na célula à direita." sqref="H5:O5" xr:uid="{2C21877B-3AA6-4154-B620-C8FB7ACC4534}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Modifique o nome da empresa nesta célula. Insira o endereço, o telefone, o fax, o email e o site da empresa nas células B2 a G3. Insira os detalhes de cobrança nas células B4 a G7." sqref="B1:C1" xr:uid="{1F220338-1F5A-4ED8-A234-D81CDB1E187A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o destino da fatura nesta célula." sqref="C7 C22 C37 C52" xr:uid="{4AA7BE11-D285-4DBF-9A63-9E7BFE092EB5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o destino da fatura na célula à direita." sqref="B7 B22 B37 B52" xr:uid="{55F00FE4-2752-4FC2-A39A-D4C192A8626C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a origem da cobrança nesta célula." sqref="C4" xr:uid="{D5F6167D-E503-4793-B302-D1877FF06A31}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número do fax da empresa nesta célula." sqref="D3:G3" xr:uid="{BD128723-C882-4491-B6EA-BF4CF234FBA6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número de telefone da empresa nesta célula." sqref="D2:G2" xr:uid="{44700D6D-CC79-45A9-A07A-2EB0E429E0C0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o endereço de email nesta célula." sqref="D6:G6" xr:uid="{F06E0EC5-6953-417C-B559-B422B401B9D3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o endereço da empresa nesta célula." sqref="B2:C2" xr:uid="{9B62F5B9-C0D5-4151-B4C7-7A74F85B088C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Crie uma fatura simples nesta planilha." sqref="A1" xr:uid="{2A946EC9-9A6D-4E29-8190-186D89ADADFA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a cidade, o estado e o CEP da empresa nesta célula." sqref="B3:C3" xr:uid="{9B7FAEA6-F14F-496F-A53C-5D0B7DD8DAAE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número de telefone nesta célula." sqref="D4:G4" xr:uid="{A5034D04-0B7D-4A08-8B32-9360AA07393D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número de fax nesta célula." sqref="D5:G5" xr:uid="{09967326-6E57-4BFD-AFD4-C10449ACAA37}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a origem da cobrança na célula à direita." sqref="B4" xr:uid="{43307D81-6F07-41C1-B5A3-EA2765946EE2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o endereço de cobrança na célula à direita." sqref="B5" xr:uid="{17A7EDDB-BBF1-4251-AAFD-AF1C5C7F4386}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o endereço de cobrança nesta célula." sqref="C5" xr:uid="{090F4A39-B56D-47A4-BF93-D37C4A93355F}"/>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="1" bottom="1" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter differentFirst="1" alignWithMargins="0">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <tableParts count="4">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D08F36-AB33-4E72-8C78-D7193ADC7495}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E9FCD0-4FDC-40B6-9942-337162A8619D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE2D7F0-F6A3-4B20-8DE0-C8DAD8EE9C7A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62BF6BC-D2FC-4BBF-BDE5-BC5C0CEC1B00}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB700946-2F13-4682-A358-663D6239F5B4}">
+  <dimension ref="A1:W21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+    </row>
+    <row r="2" spans="1:23" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+    </row>
+    <row r="3" spans="1:23" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+    </row>
+    <row r="5" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+    </row>
+    <row r="6" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+    </row>
+    <row r="7" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="23"/>
+      <c r="O9" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="24"/>
+      <c r="O11" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="24"/>
+      <c r="O12" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="24"/>
+      <c r="O13" s="26">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:U7"/>
+    <mergeCell ref="V1:W7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:G7"/>
+  </mergeCells>
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D20" xr:uid="{5B39921D-4CA4-41FF-A0DF-576720591F31}">
+      <formula1>"Conteúdo,Bando de dados,Interface,Usabilidade,Compatibilidade,Componentes,Navegação,Configuração,Segurança,Performance,Cargas,Stress"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K20" xr:uid="{39E67DBB-AD2A-4423-A42C-1DF4FA75D027}">
+      <formula1>"Caio,Vinicius,João,Luis,Lucas G,Lucas F"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o endereço de email da empresa nesta célula." sqref="G2" xr:uid="{96CC68FA-B4B5-4788-A477-DDD4C4714377}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o site da empresa nesta célula." sqref="G3" xr:uid="{6A0AE242-0C31-4A40-A827-EFF2A8E46363}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Modifique o nome da empresa nesta célula. Insira o endereço, o telefone, o fax, o email e o site da empresa nas células B2 a G3. Insira os detalhes de cobrança nas células B4 a G7." sqref="A1:B1" xr:uid="{1FE69356-2076-4AC8-BA73-9E6C3BFACAB7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número do fax da empresa nesta célula." sqref="C3:F3" xr:uid="{1D147AB1-7194-4C85-94EF-149D5ED901F3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o número de telefone da empresa nesta célula." sqref="C2:F2" xr:uid="{F949DC59-13E3-420C-AAAF-1EE7F6BF9794}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira o endereço da empresa nesta célula." sqref="A2:B2" xr:uid="{86988FF6-03AE-4765-AAAD-1D5E932DB3C5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a cidade, o estado e o CEP da empresa nesta célula." sqref="A3:B3" xr:uid="{1DA2AF8C-4859-4737-81B4-43257AF11E9D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a origem da cobrança na célula à direita." sqref="A4" xr:uid="{226E3E79-5AEA-4122-811F-0FF59D9B0F03}"/>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EF6279-519B-4302-8A39-B84181BCCC31}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>